--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.73599999999998</v>
+        <v>-20.96799999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.895</v>
+        <v>-22.79870000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.8325</v>
+        <v>-21.85660000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>5.268400000000002</v>
+        <v>5.355100000000004</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.465299999999999</v>
+        <v>4.421200000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.05780000000002</v>
+        <v>17.88640000000002</v>
       </c>
     </row>
     <row r="13">
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.68899999999999</v>
+        <v>-13.78529999999998</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.1841</v>
+        <v>-14.18009999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.047799999999996</v>
+        <v>4.848399999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.49299999999999</v>
+        <v>-21.56209999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.876</v>
+        <v>-12.1471</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.2187</v>
+        <v>-12.297</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.63980000000002</v>
+        <v>-22.83640000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.788899999999997</v>
+        <v>4.698599999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.2405</v>
+        <v>10.3548</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,16 +805,16 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.1809</v>
+        <v>10.47060000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.65280000000001</v>
+        <v>-12.46480000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.96030000000002</v>
+        <v>16.94400000000001</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.269900000000003</v>
+        <v>9.601900000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.09149999999999</v>
+        <v>-22.13539999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7852</v>
+        <v>-21.67979999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>5.662699999999998</v>
+        <v>5.478000000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.25950000000001</v>
+        <v>17.23990000000001</v>
       </c>
     </row>
     <row r="30">
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.28379999999999</v>
+        <v>-21.33620000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.637700000000008</v>
+        <v>9.673000000000007</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.22040000000001</v>
+        <v>17.24020000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.4561</v>
+        <v>-12.73420000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.51039999999999</v>
+        <v>-19.5839</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.857499999999995</v>
+        <v>9.512599999999994</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.122300000000001</v>
+        <v>6.176400000000004</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.33410000000002</v>
+        <v>17.37200000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.971000000000002</v>
+        <v>4.610900000000004</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.257900000000003</v>
+        <v>5.210900000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.2242</v>
+        <v>-22.3149</v>
       </c>
       <c r="B46" t="n">
-        <v>5.298699999999994</v>
+        <v>5.481399999999997</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.59749999999998</v>
+        <v>-13.11599999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.4788</v>
+        <v>17.4487</v>
       </c>
     </row>
     <row r="49">
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.774299999999996</v>
+        <v>4.772699999999997</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.43809999999999</v>
+        <v>-13.73749999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.2892</v>
+        <v>-22.22599999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>5.624499999999999</v>
+        <v>5.535099999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0897</v>
+        <v>-22.12209999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.88780000000002</v>
+        <v>-22.82690000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.04720000000001</v>
+        <v>-22.0704</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.9237</v>
+        <v>15.82700000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.05640000000001</v>
+        <v>-22.10940000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4621</v>
+        <v>-21.46660000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>4.718199999999998</v>
+        <v>4.714199999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>4.901699999999998</v>
+        <v>4.916399999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.79470000000001</v>
+        <v>17.89980000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.02020000000002</v>
+        <v>17.97770000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.39559999999999</v>
+        <v>-20.1711</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.12560000000001</v>
+        <v>17.26510000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.99829999999999</v>
+        <v>-22.02219999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.810000000000009</v>
+        <v>9.717800000000006</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.394999999999999</v>
+        <v>5.624999999999997</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.24229999999999</v>
+        <v>16.32859999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.42740000000002</v>
+        <v>-21.40010000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>4.577799999999997</v>
+        <v>4.857299999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.71420000000002</v>
+        <v>18.77770000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.45930000000001</v>
+        <v>-11.56980000000001</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.554800000000004</v>
+        <v>5.713700000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.35590000000001</v>
+        <v>-11.4454</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.20300000000002</v>
+        <v>-22.2135</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.87860000000001</v>
+        <v>16.83900000000001</v>
       </c>
     </row>
     <row r="102">
